--- a/casedependencypackage.xlsx
+++ b/casedependencypackage.xlsx
@@ -55,15 +55,87 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field SLA  @ Valid value for required field SLA, value should be equals Platinum for Escalation Process.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  SLA field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the SLA field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field SLA Expiration Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  SLA Expiration Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the SLA Expiration Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field SLA Serial Number </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  SLA Serial Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the SLA Serial Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Account is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>New Case</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on the Case tab, and click on New button</x:t>
   </x:si>
   <x:si>
@@ -73,9 +145,6 @@
     <x:t>Valid value for required field Case Origin  @ Valid value for required field Case Origin, value should be  Email for Workflow Process.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
     <x:t>Input valid value in the  Case Origin field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
   </x:si>
   <x:si>
@@ -85,9 +154,6 @@
     <x:t xml:space="preserve">Valid value for required field Case Number </x:t>
   </x:si>
   <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Input valid value in the  Case Number field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
   </x:si>
   <x:si>
@@ -97,9 +163,6 @@
     <x:t>Valid value for required field Priority  @ Valid value for required field Priority, value should be equals High for Escalation Process. @ Valid value for required field Priority, value should be  High for Workflow Process.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>Input valid value in the  Priority field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
   </x:si>
   <x:si>
@@ -109,27 +172,15 @@
     <x:t>Valid value for required field Status  @ Valid value for required field Status, value should be  Closed for Workflow Process.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
     <x:t>Input valid value in the  Status field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to input value for the Status field.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Input valid value in the  Account Name field.</x:t>
   </x:si>
   <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Valid value for required field Contact Name </x:t>
   </x:si>
   <x:si>
@@ -149,57 +200,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a New Case is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for required field SLA  @ Valid value for required field SLA, value should be equals Platinum for Escalation Process.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  SLA field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the SLA field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field SLA Expiration Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  SLA Expiration Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the SLA Expiration Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field SLA Serial Number </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  SLA Serial Number field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the SLA Serial Number field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -602,7 +602,7 @@
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="190.41062499999998" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="126.270625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="127.270625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="61.980625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
@@ -760,32 +760,36 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
       <x:c r="K7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="A8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>40</x:v>
@@ -802,9 +806,11 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>43</x:v>
@@ -817,27 +823,21 @@
       <x:c r="K9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="H10" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s"/>
-      <x:c r="F10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -849,16 +849,16 @@
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -873,7 +873,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>52</x:v>
@@ -891,16 +891,16 @@
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -912,16 +912,16 @@
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -934,7 +934,7 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>60</x:v>
